--- a/src/assets/files/Upload Data Downloadable Sample Template.xlsx
+++ b/src/assets/files/Upload Data Downloadable Sample Template.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suraj.d.pandey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38D2F86-B38C-478A-A793-49148BD3D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD192A-FF9D-4542-A95D-6DA633A67C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="40" windowWidth="18910" windowHeight="10040" xr2:uid="{BBF1A6F8-5552-4504-8AC4-846A57B6E578}"/>
+    <workbookView xWindow="290" yWindow="40" windowWidth="18910" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,26 +30,26 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>Phoneno</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phoneno</t>
-  </si>
-  <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>Username</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,30 +57,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -99,33 +74,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,7 +114,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -172,7 +126,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -219,23 +173,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -271,23 +208,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,41 +359,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CB6DE1-D7AE-4884-9744-F7E44D65C635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
